--- a/power-bi/data/Columns descriptions (partial).xlsx
+++ b/power-bi/data/Columns descriptions (partial).xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -597,8 +597,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +637,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -664,9 +664,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -704,7 +704,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -738,7 +738,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -773,10 +772,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -949,22 +947,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -978,7 +976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -989,7 +987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1000,7 +998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1109,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1207,7 +1205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1221,7 +1219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1263,7 +1261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -1291,7 +1289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1347,7 +1345,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1375,7 +1373,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1387,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1401,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1445,7 +1443,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1471,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1499,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1513,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1527,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1557,7 +1555,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1569,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -1585,7 +1583,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1611,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1625,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1641,7 +1639,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1683,7 +1681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1709,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1737,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -1753,7 +1751,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1767,7 +1765,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +1793,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1807,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -1823,7 +1821,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1849,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1863,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>1</v>
       </c>
@@ -1879,7 +1877,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1905,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1933,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>1</v>
       </c>
@@ -1963,7 +1961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +1975,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>1</v>
       </c>
@@ -2005,7 +2003,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2017,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>1</v>
       </c>
@@ -2047,7 +2045,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -2061,7 +2059,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2073,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -2103,7 +2101,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2115,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>1</v>
       </c>
@@ -2131,7 +2129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -2145,7 +2143,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -2173,7 +2171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -2196,24 +2194,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
